--- a/2. import master product.xlsx
+++ b/2. import master product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="95">
   <si>
     <t xml:space="preserve">Sequence</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">1-1206 Account Receivables-Rp.</t>
+    <t xml:space="preserve">4-2101 - DSI Rental</t>
   </si>
   <si>
     <t xml:space="preserve">2-1201 Accounts Payable-US$</t>
@@ -160,6 +160,9 @@
     <t xml:space="preserve">RRR 8-1/2" - Daily 1 Tool</t>
   </si>
   <si>
+    <t xml:space="preserve">4-1401 - RRR Rental</t>
+  </si>
+  <si>
     <t xml:space="preserve">RRR 8-1/2" - Monthly 1 Tool</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
     <t xml:space="preserve">Personnel - Site Superviser Standby</t>
   </si>
   <si>
+    <t xml:space="preserve">4-3503 - C&amp;P Personnel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnel - Blaster Standby</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t xml:space="preserve">Mob &amp; Demob Equipment - Water Jetting Densin Mermaid</t>
   </si>
   <si>
+    <t xml:space="preserve">4-3504 - C&amp;P Mob / Demob</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mob &amp; Demob Equipment - Graco Mark V</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t xml:space="preserve">Equipment - Water Jetting Densin Mermaid Standby</t>
   </si>
   <si>
+    <t xml:space="preserve">4-3505 - C&amp;P Others</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equipment - Graco Mark V Standby</t>
   </si>
   <si>
@@ -274,22 +286,35 @@
     <t xml:space="preserve">QAQC Engineer - Daily</t>
   </si>
   <si>
+    <t xml:space="preserve">4-3301 - FPPersonnel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cortec Sale - VpCI 609 - per drum (22,7KGS)</t>
   </si>
   <si>
+    <t xml:space="preserve">Sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-2401 - Cortec Sales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cortec Sale - VpCI 368 - per pail </t>
   </si>
   <si>
     <t xml:space="preserve">Terra Manual Installation Tools for cable protector - Sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-2600 - Terra Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="MMM\-YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -323,18 +348,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,34 +415,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C58" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="topRight" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.17"/>
@@ -431,6 +452,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="30.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1676,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>18</v>
@@ -1666,7 +1688,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
@@ -1694,7 +1716,7 @@
         <v>16</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>18</v>
@@ -1706,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -1734,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>18</v>
@@ -1746,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -1774,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>18</v>
@@ -1786,7 +1808,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
@@ -1814,7 +1836,7 @@
         <v>16</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>18</v>
@@ -1826,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>13</v>
@@ -1854,7 +1876,7 @@
         <v>16</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>18</v>
@@ -1866,7 +1888,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>13</v>
@@ -1894,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>18</v>
@@ -1906,7 +1928,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>13</v>
@@ -1934,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>18</v>
@@ -1946,7 +1968,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
@@ -1974,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>18</v>
@@ -1986,7 +2008,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>13</v>
@@ -2014,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>18</v>
@@ -2026,7 +2048,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -2054,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>18</v>
@@ -2066,7 +2088,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>13</v>
@@ -2094,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>18</v>
@@ -2306,7 +2328,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>13</v>
@@ -2546,7 +2568,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>13</v>
@@ -2786,7 +2808,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>13</v>
@@ -2826,7 +2848,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>13</v>
@@ -2850,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>18</v>
@@ -2862,7 +2884,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>13</v>
@@ -2886,7 +2908,7 @@
         <v>16</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>18</v>
@@ -2898,7 +2920,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>13</v>
@@ -2922,7 +2944,7 @@
         <v>16</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>18</v>
@@ -2934,7 +2956,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>13</v>
@@ -2960,7 +2982,7 @@
         <v>16</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>18</v>
@@ -2972,7 +2994,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>13</v>
@@ -2998,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>18</v>
@@ -3010,7 +3032,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>13</v>
@@ -3036,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>18</v>
@@ -3048,7 +3070,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>13</v>
@@ -3073,8 +3095,8 @@
       <c r="J67" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>17</v>
+      <c r="K67" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>18</v>
@@ -3086,7 +3108,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>13</v>
@@ -3111,8 +3133,8 @@
       <c r="J68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>17</v>
+      <c r="K68" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>18</v>
@@ -3124,7 +3146,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>13</v>
@@ -3149,8 +3171,8 @@
       <c r="J69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>17</v>
+      <c r="K69" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>18</v>
@@ -3162,7 +3184,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>13</v>
@@ -3187,8 +3209,8 @@
       <c r="J70" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>17</v>
+      <c r="K70" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>18</v>
@@ -3200,7 +3222,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>13</v>
@@ -3226,7 +3248,7 @@
         <v>16</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>18</v>
@@ -3238,7 +3260,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>13</v>
@@ -3264,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>18</v>
@@ -3276,7 +3298,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>13</v>
@@ -3302,7 +3324,7 @@
         <v>16</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>18</v>
@@ -3314,7 +3336,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>13</v>
@@ -3340,7 +3362,7 @@
         <v>16</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>18</v>
@@ -3352,7 +3374,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>13</v>
@@ -3378,7 +3400,7 @@
         <v>16</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>18</v>
@@ -3390,7 +3412,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>13</v>
@@ -3416,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>18</v>
@@ -3428,7 +3450,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>13</v>
@@ -3454,7 +3476,7 @@
         <v>16</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>18</v>
@@ -3466,7 +3488,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>13</v>
@@ -3492,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>18</v>
@@ -3504,7 +3526,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>13</v>
@@ -3530,7 +3552,7 @@
         <v>16</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>18</v>
@@ -3582,7 +3604,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>13</v>
@@ -3622,7 +3644,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>13</v>
@@ -3662,7 +3684,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>13</v>
@@ -3742,7 +3764,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>13</v>
@@ -3782,7 +3804,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>13</v>
@@ -3822,7 +3844,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>13</v>
@@ -3862,7 +3884,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>13</v>
@@ -3889,22 +3911,22 @@
         <v>16</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
         <f aca="false">+A88+1</f>
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>13</v>
+        <v>89</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>14</v>
@@ -3925,22 +3947,22 @@
         <v>16</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
         <f aca="false">+A89+1</f>
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>14</v>
@@ -3961,22 +3983,22 @@
         <v>16</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
         <f aca="false">+A90+1</f>
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>14</v>
@@ -3997,44 +4019,11 @@
         <v>16</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
